--- a/prix/push.xlsx
+++ b/prix/push.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8BAE9-8F6D-48B7-9AE5-897B8FA04E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA8ABA-AE55-4B5C-BF7D-0AB97D0062EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37F12267-615D-4EAF-9E58-766BB65D19FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>43124002</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>push/vanne-ecrou-libre.png</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +411,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,10 +467,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +814,10 @@
   <cols>
     <col min="1" max="1" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="6"/>
     <col min="5" max="5" width="11.5546875" style="7"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="7" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -830,7 +842,9 @@
       <c r="E1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -847,7 +861,7 @@
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>15</v>
       </c>
       <c r="D2" s="8">
@@ -856,7 +870,9 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -865,7 +881,7 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>16</v>
       </c>
       <c r="D3" s="8">
@@ -874,7 +890,9 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -883,7 +901,7 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>20</v>
       </c>
       <c r="D4" s="8">
@@ -892,7 +910,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -901,7 +921,7 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D5" s="8">
@@ -910,7 +930,9 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -919,7 +941,7 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="8">
@@ -928,7 +950,9 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -937,7 +961,7 @@
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="8">
@@ -946,7 +970,9 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -955,7 +981,7 @@
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="8">
@@ -964,7 +990,9 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -973,7 +1001,7 @@
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="8">
@@ -982,13 +1010,15 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="8">
@@ -997,7 +1027,9 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1006,7 +1038,7 @@
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="8">
@@ -1015,13 +1047,15 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="8">
@@ -1030,13 +1064,15 @@
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="8">
@@ -1045,7 +1081,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1054,7 +1092,7 @@
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="8">
@@ -1063,7 +1101,9 @@
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1072,7 +1112,7 @@
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="8">
@@ -1081,7 +1121,9 @@
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1090,7 +1132,7 @@
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="8">
@@ -1099,7 +1141,9 @@
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1108,7 +1152,7 @@
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="8">
@@ -1117,7 +1161,9 @@
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1126,7 +1172,7 @@
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="8">
@@ -1135,7 +1181,9 @@
       <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -1144,7 +1192,7 @@
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="8">
@@ -1153,7 +1201,9 @@
       <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1162,7 +1212,7 @@
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="8">
@@ -1171,7 +1221,9 @@
       <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -1180,7 +1232,7 @@
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="8">
@@ -1189,7 +1241,9 @@
       <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -1198,7 +1252,7 @@
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="8">
@@ -1207,7 +1261,9 @@
       <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -1216,7 +1272,7 @@
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="8">
@@ -1225,7 +1281,9 @@
       <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1234,7 +1292,7 @@
       <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="8">
@@ -1243,7 +1301,9 @@
       <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1252,7 +1312,7 @@
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="8">
@@ -1261,7 +1321,9 @@
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -1270,7 +1332,7 @@
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="8">
@@ -1279,7 +1341,9 @@
       <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -1288,7 +1352,7 @@
       <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D27" s="8">
@@ -1297,7 +1361,9 @@
       <c r="E27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -1306,7 +1372,7 @@
       <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="8">
@@ -1315,7 +1381,9 @@
       <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1324,7 +1392,7 @@
       <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="8">
@@ -1333,7 +1401,9 @@
       <c r="E29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -1342,7 +1412,7 @@
       <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="8">
@@ -1351,7 +1421,9 @@
       <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1360,7 +1432,7 @@
       <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="8">
@@ -1369,7 +1441,9 @@
       <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1378,7 +1452,7 @@
       <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="8">
@@ -1387,7 +1461,9 @@
       <c r="E32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1396,7 +1472,7 @@
       <c r="B33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="8">
@@ -1405,7 +1481,9 @@
       <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -1414,7 +1492,7 @@
       <c r="B34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="8">
@@ -1423,7 +1501,9 @@
       <c r="E34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -1432,7 +1512,7 @@
       <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="8">
@@ -1441,7 +1521,9 @@
       <c r="E35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
@@ -1450,7 +1532,7 @@
       <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="8">
@@ -1459,7 +1541,9 @@
       <c r="E36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -1468,7 +1552,7 @@
       <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D37" s="8">
@@ -1477,7 +1561,9 @@
       <c r="E37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -1486,7 +1572,7 @@
       <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D38" s="8">
@@ -1495,7 +1581,9 @@
       <c r="E38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -1504,7 +1592,7 @@
       <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="8">
@@ -1513,7 +1601,9 @@
       <c r="E39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -1522,7 +1612,7 @@
       <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D40" s="8">
@@ -1531,9 +1621,12 @@
       <c r="E40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/push.xlsx
+++ b/prix/push.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA8ABA-AE55-4B5C-BF7D-0AB97D0062EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38AEFBC-93D5-4BC9-B38E-26B4E6624320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37F12267-615D-4EAF-9E58-766BB65D19FA}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{37F12267-615D-4EAF-9E58-766BB65D19FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>43124002</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -470,6 +467,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -808,7 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B8C521-48D9-4814-9636-D1C5351407E8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -870,8 +872,8 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>117</v>
+      <c r="F2" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -890,8 +892,8 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>117</v>
+      <c r="F3" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -910,8 +912,8 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>117</v>
+      <c r="F4" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -930,8 +932,8 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>117</v>
+      <c r="F5" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -950,8 +952,8 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>117</v>
+      <c r="F6" s="11">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -970,8 +972,8 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>117</v>
+      <c r="F7" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -990,8 +992,8 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
+      <c r="F8" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1010,8 +1012,8 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>117</v>
+      <c r="F9" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1027,8 +1029,8 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>117</v>
+      <c r="F10" s="11">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1047,8 +1049,8 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>117</v>
+      <c r="F11" s="11">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1064,8 +1066,8 @@
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>117</v>
+      <c r="F12" s="11">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1081,8 +1083,8 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>117</v>
+      <c r="F13" s="11">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1101,8 +1103,8 @@
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>117</v>
+      <c r="F14" s="11">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1121,8 +1123,8 @@
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>117</v>
+      <c r="F15" s="11">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1141,8 +1143,8 @@
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>117</v>
+      <c r="F16" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,8 +1163,8 @@
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
+      <c r="F17" s="11">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1181,8 +1183,8 @@
       <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
+      <c r="F18" s="11">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1201,8 +1203,8 @@
       <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>117</v>
+      <c r="F19" s="11">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1221,8 +1223,8 @@
       <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
+      <c r="F20" s="11">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1241,8 +1243,8 @@
       <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>117</v>
+      <c r="F21" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1261,8 +1263,8 @@
       <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
+      <c r="F22" s="11">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1281,8 +1283,8 @@
       <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>117</v>
+      <c r="F23" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1301,8 +1303,8 @@
       <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>117</v>
+      <c r="F24" s="11">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1321,8 +1323,8 @@
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>117</v>
+      <c r="F25" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1341,8 +1343,8 @@
       <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>117</v>
+      <c r="F26" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,8 +1363,8 @@
       <c r="E27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>117</v>
+      <c r="F27" s="11">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1381,8 +1383,8 @@
       <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>117</v>
+      <c r="F28" s="11">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1401,8 +1403,8 @@
       <c r="E29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
+      <c r="F29" s="11">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1421,8 +1423,8 @@
       <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>117</v>
+      <c r="F30" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,8 +1443,8 @@
       <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>117</v>
+      <c r="F31" s="11">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1461,8 +1463,8 @@
       <c r="E32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>117</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1481,8 +1483,8 @@
       <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>117</v>
+      <c r="F33" s="11">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1501,8 +1503,8 @@
       <c r="E34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>117</v>
+      <c r="F34" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1521,8 +1523,8 @@
       <c r="E35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>117</v>
+      <c r="F35" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1541,8 +1543,8 @@
       <c r="E36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>117</v>
+      <c r="F36" s="11">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1561,8 +1563,8 @@
       <c r="E37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>117</v>
+      <c r="F37" s="11">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1581,8 +1583,8 @@
       <c r="E38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>117</v>
+      <c r="F38" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1601,8 +1603,8 @@
       <c r="E39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>117</v>
+      <c r="F39" s="11">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1621,8 +1623,8 @@
       <c r="E40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>117</v>
+      <c r="F40" s="11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/prix/push.xlsx
+++ b/prix/push.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38AEFBC-93D5-4BC9-B38E-26B4E6624320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16910A0E-9C35-4D9F-ABEA-E37D774534FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{37F12267-615D-4EAF-9E58-766BB65D19FA}"/>
   </bookViews>
@@ -808,9 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B8C521-48D9-4814-9636-D1C5351407E8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1184,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="11">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,7 +1362,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,7 +1522,7 @@
         <v>66</v>
       </c>
       <c r="F35" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,7 +1542,7 @@
         <v>68</v>
       </c>
       <c r="F36" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">

--- a/prix/push.xlsx
+++ b/prix/push.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16910A0E-9C35-4D9F-ABEA-E37D774534FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C41EE-88F6-4B3F-9699-3632CF0CA25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{37F12267-615D-4EAF-9E58-766BB65D19FA}"/>
   </bookViews>
@@ -460,17 +460,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,13 +808,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B8C521-48D9-4814-9636-D1C5351407E8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="6"/>
     <col min="5" max="5" width="11.5546875" style="7"/>
     <col min="6" max="6" width="22.77734375" style="7" customWidth="1"/>
@@ -842,7 +844,7 @@
       <c r="E1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G1" s="1"/>
@@ -861,17 +863,17 @@
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>2.77</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11">
-        <v>13</v>
+      <c r="F2" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -881,17 +883,17 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>3.7600000000000002</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
-        <v>3</v>
+      <c r="F3" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -901,16 +903,16 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>20</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>5.34</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>9</v>
       </c>
     </row>
@@ -921,16 +923,16 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>6.32</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>23</v>
       </c>
     </row>
@@ -941,16 +943,16 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>6.32</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>36</v>
       </c>
     </row>
@@ -961,16 +963,16 @@
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>7.48</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>9</v>
       </c>
     </row>
@@ -981,16 +983,16 @@
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1001,16 +1003,16 @@
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>7.87</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>13</v>
       </c>
     </row>
@@ -1018,16 +1020,16 @@
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>5.78</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>34</v>
       </c>
     </row>
@@ -1038,16 +1040,16 @@
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>5.22</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>27</v>
       </c>
     </row>
@@ -1055,16 +1057,16 @@
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>8.4600000000000009</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1072,16 +1074,16 @@
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>9.370000000000001</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>25</v>
       </c>
     </row>
@@ -1092,16 +1094,16 @@
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>3.96</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>41</v>
       </c>
     </row>
@@ -1112,17 +1114,17 @@
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <v>4.16</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11">
-        <v>26</v>
+      <c r="F15" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1132,16 +1134,16 @@
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>8.91</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>11</v>
       </c>
     </row>
@@ -1152,16 +1154,16 @@
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="11">
         <v>7.04</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>17</v>
       </c>
     </row>
@@ -1172,16 +1174,16 @@
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>5.12</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>49</v>
       </c>
     </row>
@@ -1192,16 +1194,16 @@
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="11">
         <v>10.14</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>26</v>
       </c>
     </row>
@@ -1212,16 +1214,16 @@
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>7.18</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>21</v>
       </c>
     </row>
@@ -1232,16 +1234,16 @@
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="11">
         <v>12.89</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1252,16 +1254,16 @@
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>9.6</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>18</v>
       </c>
     </row>
@@ -1272,16 +1274,16 @@
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="11">
         <v>13.1</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1292,16 +1294,16 @@
       <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="11">
         <v>9.58</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>32</v>
       </c>
     </row>
@@ -1312,17 +1314,17 @@
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="11">
         <v>8.1300000000000008</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="11">
-        <v>2</v>
+      <c r="F25" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1332,16 +1334,16 @@
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="11">
         <v>14.68</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1352,16 +1354,16 @@
       <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="11">
         <v>6.24</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>44</v>
       </c>
     </row>
@@ -1372,16 +1374,16 @@
       <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="11">
         <v>7.11</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1392,16 +1394,16 @@
       <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>6.59</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>18</v>
       </c>
     </row>
@@ -1412,16 +1414,16 @@
       <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>10.78</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1432,17 +1434,17 @@
       <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="11">
         <v>7.36</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="11">
-        <v>41</v>
+      <c r="F31" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,16 +1454,16 @@
       <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="11">
         <v>10.78</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1472,16 +1474,16 @@
       <c r="B33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="11">
         <v>17.32</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>30</v>
       </c>
     </row>
@@ -1492,16 +1494,16 @@
       <c r="B34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>0.83000000000000007</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
     </row>
@@ -1512,16 +1514,16 @@
       <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="11">
         <v>3.1</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1532,16 +1534,16 @@
       <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="11">
         <v>1.95</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>38</v>
       </c>
     </row>
@@ -1552,16 +1554,16 @@
       <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="11">
         <v>3.15</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>62</v>
       </c>
     </row>
@@ -1572,16 +1574,16 @@
       <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>11.4</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>15</v>
       </c>
     </row>
@@ -1592,16 +1594,16 @@
       <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="11">
         <v>10.01</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1612,16 +1614,16 @@
       <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="11">
         <v>10</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>40</v>
       </c>
     </row>
